--- a/LR3/table_1_30.xlsx
+++ b/LR3/table_1_30.xlsx
@@ -537,13 +537,14 @@
     </row>
     <row r="4">
       <c r="A4" s="2">
-        <v>2.0</v>
+        <f t="shared" ref="A4:A38" si="6">A3+1</f>
+        <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="3">
-        <f t="shared" ref="C4:C38" si="6">C3-0.5</f>
+        <f t="shared" ref="C4:C38" si="7">C3-0.5</f>
         <v>69.5</v>
       </c>
       <c r="D4" s="2">
@@ -578,13 +579,14 @@
     </row>
     <row r="5">
       <c r="A5" s="2">
-        <v>3.0</v>
+        <f t="shared" si="6"/>
+        <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>69</v>
       </c>
       <c r="D5" s="2">
@@ -619,13 +621,14 @@
     </row>
     <row r="6">
       <c r="A6" s="2">
-        <v>4.0</v>
+        <f t="shared" si="6"/>
+        <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>68.5</v>
       </c>
       <c r="D6" s="2">
@@ -660,13 +663,14 @@
     </row>
     <row r="7">
       <c r="A7" s="2">
-        <v>5.0</v>
+        <f t="shared" si="6"/>
+        <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>68</v>
       </c>
       <c r="D7" s="2">
@@ -701,13 +705,14 @@
     </row>
     <row r="8">
       <c r="A8" s="2">
-        <v>6.0</v>
+        <f t="shared" si="6"/>
+        <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C8" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>67.5</v>
       </c>
       <c r="D8" s="2">
@@ -742,13 +747,14 @@
     </row>
     <row r="9">
       <c r="A9" s="2">
-        <v>7.0</v>
+        <f t="shared" si="6"/>
+        <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>67</v>
       </c>
       <c r="D9" s="2">
@@ -783,13 +789,14 @@
     </row>
     <row r="10">
       <c r="A10" s="2">
-        <v>8.0</v>
+        <f t="shared" si="6"/>
+        <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C10" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>66.5</v>
       </c>
       <c r="D10" s="2">
@@ -824,13 +831,14 @@
     </row>
     <row r="11">
       <c r="A11" s="2">
-        <v>9.0</v>
+        <f t="shared" si="6"/>
+        <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C11" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>66</v>
       </c>
       <c r="D11" s="2">
@@ -865,13 +873,14 @@
     </row>
     <row r="12">
       <c r="A12" s="2">
-        <v>10.0</v>
+        <f t="shared" si="6"/>
+        <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C12" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>65.5</v>
       </c>
       <c r="D12" s="2">
@@ -906,13 +915,14 @@
     </row>
     <row r="13">
       <c r="A13" s="2">
-        <v>11.0</v>
+        <f t="shared" si="6"/>
+        <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C13" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>65</v>
       </c>
       <c r="D13" s="2">
@@ -947,13 +957,14 @@
     </row>
     <row r="14">
       <c r="A14" s="2">
-        <v>12.0</v>
+        <f t="shared" si="6"/>
+        <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C14" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>64.5</v>
       </c>
       <c r="D14" s="2">
@@ -988,13 +999,14 @@
     </row>
     <row r="15">
       <c r="A15" s="2">
-        <v>13.0</v>
+        <f t="shared" si="6"/>
+        <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C15" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>64</v>
       </c>
       <c r="D15" s="2">
@@ -1029,13 +1041,14 @@
     </row>
     <row r="16">
       <c r="A16" s="2">
-        <v>14.0</v>
+        <f t="shared" si="6"/>
+        <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C16" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>63.5</v>
       </c>
       <c r="D16" s="2">
@@ -1070,13 +1083,14 @@
     </row>
     <row r="17">
       <c r="A17" s="2">
-        <v>15.0</v>
+        <f t="shared" si="6"/>
+        <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C17" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>63</v>
       </c>
       <c r="D17" s="2">
@@ -1111,13 +1125,14 @@
     </row>
     <row r="18">
       <c r="A18" s="2">
-        <v>16.0</v>
+        <f t="shared" si="6"/>
+        <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C18" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>62.5</v>
       </c>
       <c r="D18" s="2">
@@ -1152,13 +1167,14 @@
     </row>
     <row r="19">
       <c r="A19" s="2">
-        <v>17.0</v>
+        <f t="shared" si="6"/>
+        <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C19" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>62</v>
       </c>
       <c r="D19" s="2">
@@ -1193,13 +1209,14 @@
     </row>
     <row r="20">
       <c r="A20" s="2">
-        <v>18.0</v>
+        <f t="shared" si="6"/>
+        <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C20" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>61.5</v>
       </c>
       <c r="D20" s="2">
@@ -1234,13 +1251,14 @@
     </row>
     <row r="21">
       <c r="A21" s="2">
-        <v>19.0</v>
+        <f t="shared" si="6"/>
+        <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C21" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>61</v>
       </c>
       <c r="D21" s="2">
@@ -1275,13 +1293,14 @@
     </row>
     <row r="22">
       <c r="A22" s="2">
-        <v>20.0</v>
+        <f t="shared" si="6"/>
+        <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C22" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>60.5</v>
       </c>
       <c r="D22" s="2">
@@ -1316,13 +1335,14 @@
     </row>
     <row r="23">
       <c r="A23" s="2">
-        <v>21.0</v>
+        <f t="shared" si="6"/>
+        <v>21</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>31</v>
       </c>
       <c r="C23" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>60</v>
       </c>
       <c r="D23" s="2">
@@ -1357,13 +1377,14 @@
     </row>
     <row r="24">
       <c r="A24" s="2">
-        <v>22.0</v>
+        <f t="shared" si="6"/>
+        <v>22</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>32</v>
       </c>
       <c r="C24" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>59.5</v>
       </c>
       <c r="D24" s="2">
@@ -1398,13 +1419,14 @@
     </row>
     <row r="25">
       <c r="A25" s="2">
-        <v>23.0</v>
+        <f t="shared" si="6"/>
+        <v>23</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>33</v>
       </c>
       <c r="C25" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>59</v>
       </c>
       <c r="D25" s="2">
@@ -1439,13 +1461,14 @@
     </row>
     <row r="26">
       <c r="A26" s="2">
-        <v>24.0</v>
+        <f t="shared" si="6"/>
+        <v>24</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>34</v>
       </c>
       <c r="C26" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>58.5</v>
       </c>
       <c r="D26" s="2">
@@ -1480,13 +1503,14 @@
     </row>
     <row r="27">
       <c r="A27" s="2">
-        <v>25.0</v>
+        <f t="shared" si="6"/>
+        <v>25</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>35</v>
       </c>
       <c r="C27" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>58</v>
       </c>
       <c r="D27" s="2">
@@ -1521,13 +1545,14 @@
     </row>
     <row r="28">
       <c r="A28" s="2">
-        <v>26.0</v>
+        <f t="shared" si="6"/>
+        <v>26</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>36</v>
       </c>
       <c r="C28" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>57.5</v>
       </c>
       <c r="D28" s="2">
@@ -1562,13 +1587,14 @@
     </row>
     <row r="29">
       <c r="A29" s="2">
-        <v>27.0</v>
+        <f t="shared" si="6"/>
+        <v>27</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>37</v>
       </c>
       <c r="C29" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>57</v>
       </c>
       <c r="D29" s="2">
@@ -1603,13 +1629,14 @@
     </row>
     <row r="30">
       <c r="A30" s="2">
-        <v>28.0</v>
+        <f t="shared" si="6"/>
+        <v>28</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>38</v>
       </c>
       <c r="C30" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>56.5</v>
       </c>
       <c r="D30" s="2">
@@ -1644,13 +1671,14 @@
     </row>
     <row r="31">
       <c r="A31" s="2">
-        <v>29.0</v>
+        <f t="shared" si="6"/>
+        <v>29</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>39</v>
       </c>
       <c r="C31" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>56</v>
       </c>
       <c r="D31" s="2">
@@ -1685,13 +1713,14 @@
     </row>
     <row r="32">
       <c r="A32" s="2">
-        <v>30.0</v>
+        <f t="shared" si="6"/>
+        <v>30</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>40</v>
       </c>
       <c r="C32" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>55.5</v>
       </c>
       <c r="D32" s="2">
@@ -1726,13 +1755,14 @@
     </row>
     <row r="33">
       <c r="A33" s="2">
-        <v>31.0</v>
+        <f t="shared" si="6"/>
+        <v>31</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C33" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>55</v>
       </c>
       <c r="D33" s="2">
@@ -1767,13 +1797,14 @@
     </row>
     <row r="34">
       <c r="A34" s="2">
-        <v>32.0</v>
+        <f t="shared" si="6"/>
+        <v>32</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>42</v>
       </c>
       <c r="C34" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>54.5</v>
       </c>
       <c r="D34" s="2">
@@ -1808,17 +1839,18 @@
     </row>
     <row r="35">
       <c r="A35" s="2">
-        <v>33.0</v>
+        <f t="shared" si="6"/>
+        <v>33</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>43</v>
       </c>
       <c r="C35" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>54</v>
       </c>
       <c r="D35" s="3">
-        <f t="shared" ref="D35:D38" si="7">30*(1.1/2)</f>
+        <f t="shared" ref="D35:D38" si="8">30*(1.1/2)</f>
         <v>16.5</v>
       </c>
       <c r="E35" s="3">
@@ -1849,17 +1881,18 @@
     </row>
     <row r="36">
       <c r="A36" s="2">
-        <v>34.0</v>
+        <f t="shared" si="6"/>
+        <v>34</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>44</v>
       </c>
       <c r="C36" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>53.5</v>
       </c>
       <c r="D36" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>16.5</v>
       </c>
       <c r="E36" s="3">
@@ -1890,17 +1923,18 @@
     </row>
     <row r="37">
       <c r="A37" s="2">
-        <v>35.0</v>
+        <f t="shared" si="6"/>
+        <v>35</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>45</v>
       </c>
       <c r="C37" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>53</v>
       </c>
       <c r="D37" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>16.5</v>
       </c>
       <c r="E37" s="3">
@@ -1931,17 +1965,18 @@
     </row>
     <row r="38">
       <c r="A38" s="2">
-        <v>36.0</v>
+        <f t="shared" si="6"/>
+        <v>36</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>46</v>
       </c>
       <c r="C38" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>52.5</v>
       </c>
       <c r="D38" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>16.5</v>
       </c>
       <c r="E38" s="3">

--- a/LR3/table_1_30.xlsx
+++ b/LR3/table_1_30.xlsx
@@ -3,14 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{157FCDBD-7065-460A-AC28-094B139A2D84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E29AE89-9AF7-436B-96A4-8CBC6795B6C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
-    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -200,7 +198,6 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -223,17 +220,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
@@ -576,9 +570,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AQ43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
@@ -599,74 +591,74 @@
       </c>
     </row>
     <row r="2" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="3"/>
-      <c r="Z2" s="3"/>
-      <c r="AA2" s="3"/>
-      <c r="AB2" s="3"/>
-      <c r="AC2" s="3"/>
-      <c r="AD2" s="3"/>
-      <c r="AE2" s="3"/>
-      <c r="AF2" s="3"/>
-      <c r="AG2" s="3"/>
-      <c r="AH2" s="3"/>
-      <c r="AI2" s="3"/>
-      <c r="AJ2" s="3"/>
-      <c r="AK2" s="3"/>
-      <c r="AL2" s="3"/>
-      <c r="AM2" s="3"/>
-      <c r="AN2" s="3"/>
-      <c r="AO2" s="3"/>
-      <c r="AP2" s="3"/>
-      <c r="AQ2" s="3"/>
+      <c r="K2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
+      <c r="AC2" s="2"/>
+      <c r="AD2" s="2"/>
+      <c r="AE2" s="2"/>
+      <c r="AF2" s="2"/>
+      <c r="AG2" s="2"/>
+      <c r="AH2" s="2"/>
+      <c r="AI2" s="2"/>
+      <c r="AJ2" s="2"/>
+      <c r="AK2" s="2"/>
+      <c r="AL2" s="2"/>
+      <c r="AM2" s="2"/>
+      <c r="AN2" s="2"/>
+      <c r="AO2" s="2"/>
+      <c r="AP2" s="2"/>
+      <c r="AQ2" s="2"/>
     </row>
     <row r="3" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+      <c r="A3" s="3">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -683,10 +675,10 @@
         <f>D3*C3</f>
         <v>1617</v>
       </c>
-      <c r="F3" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G3" s="5">
+      <c r="F3" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G3" s="4">
         <v>44805</v>
       </c>
       <c r="H3" s="1">
@@ -705,7 +697,7 @@
       </c>
     </row>
     <row r="4" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
+      <c r="A4" s="3">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -722,10 +714,10 @@
         <f t="shared" ref="E4:E38" si="0">D4*C4</f>
         <v>1681.9</v>
       </c>
-      <c r="F4" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G4" s="5">
+      <c r="F4" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G4" s="4">
         <v>44806</v>
       </c>
       <c r="H4" s="1">
@@ -744,7 +736,7 @@
       </c>
     </row>
     <row r="5" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
+      <c r="A5" s="3">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -761,10 +753,10 @@
         <f t="shared" si="0"/>
         <v>1745.7</v>
       </c>
-      <c r="F5" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G5" s="5">
+      <c r="F5" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G5" s="4">
         <v>44807</v>
       </c>
       <c r="H5" s="1">
@@ -783,7 +775,7 @@
       </c>
     </row>
     <row r="6" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
+      <c r="A6" s="3">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -800,10 +792,10 @@
         <f t="shared" si="0"/>
         <v>1808.4</v>
       </c>
-      <c r="F6" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G6" s="5">
+      <c r="F6" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G6" s="4">
         <v>44808</v>
       </c>
       <c r="H6" s="1">
@@ -822,7 +814,7 @@
       </c>
     </row>
     <row r="7" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
+      <c r="A7" s="3">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -839,10 +831,10 @@
         <f t="shared" si="0"/>
         <v>1870.0000000000002</v>
       </c>
-      <c r="F7" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G7" s="5">
+      <c r="F7" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G7" s="4">
         <v>44809</v>
       </c>
       <c r="H7" s="1">
@@ -861,7 +853,7 @@
       </c>
     </row>
     <row r="8" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
+      <c r="A8" s="3">
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -878,10 +870,10 @@
         <f t="shared" si="0"/>
         <v>1930.5</v>
       </c>
-      <c r="F8" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G8" s="5">
+      <c r="F8" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G8" s="4">
         <v>44810</v>
       </c>
       <c r="H8" s="1">
@@ -900,7 +892,7 @@
       </c>
     </row>
     <row r="9" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
+      <c r="A9" s="3">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -917,10 +909,10 @@
         <f t="shared" si="0"/>
         <v>1989.9</v>
       </c>
-      <c r="F9" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G9" s="5">
+      <c r="F9" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G9" s="4">
         <v>44811</v>
       </c>
       <c r="H9" s="1">
@@ -939,7 +931,7 @@
       </c>
     </row>
     <row r="10" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
+      <c r="A10" s="3">
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -956,10 +948,10 @@
         <f t="shared" si="0"/>
         <v>2048.2000000000003</v>
       </c>
-      <c r="F10" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G10" s="5">
+      <c r="F10" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G10" s="4">
         <v>44812</v>
       </c>
       <c r="H10" s="1">
@@ -978,7 +970,7 @@
       </c>
     </row>
     <row r="11" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
+      <c r="A11" s="3">
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -995,10 +987,10 @@
         <f t="shared" si="0"/>
         <v>2105.4</v>
       </c>
-      <c r="F11" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G11" s="5">
+      <c r="F11" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G11" s="4">
         <v>44813</v>
       </c>
       <c r="H11" s="1">
@@ -1017,7 +1009,7 @@
       </c>
     </row>
     <row r="12" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
+      <c r="A12" s="3">
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -1034,10 +1026,10 @@
         <f t="shared" si="0"/>
         <v>2161.5</v>
       </c>
-      <c r="F12" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G12" s="5">
+      <c r="F12" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G12" s="4">
         <v>44814</v>
       </c>
       <c r="H12" s="1">
@@ -1056,7 +1048,7 @@
       </c>
     </row>
     <row r="13" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
+      <c r="A13" s="3">
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -1073,10 +1065,10 @@
         <f t="shared" si="0"/>
         <v>2216.5</v>
       </c>
-      <c r="F13" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G13" s="5">
+      <c r="F13" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G13" s="4">
         <v>44815</v>
       </c>
       <c r="H13" s="1">
@@ -1095,7 +1087,7 @@
       </c>
     </row>
     <row r="14" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
+      <c r="A14" s="3">
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -1112,10 +1104,10 @@
         <f t="shared" si="0"/>
         <v>2270.4</v>
       </c>
-      <c r="F14" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G14" s="5">
+      <c r="F14" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G14" s="4">
         <v>44816</v>
       </c>
       <c r="H14" s="1">
@@ -1134,7 +1126,7 @@
       </c>
     </row>
     <row r="15" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
+      <c r="A15" s="3">
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -1151,10 +1143,10 @@
         <f t="shared" si="0"/>
         <v>2323.2000000000003</v>
       </c>
-      <c r="F15" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G15" s="5">
+      <c r="F15" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G15" s="4">
         <v>44817</v>
       </c>
       <c r="H15" s="1">
@@ -1173,7 +1165,7 @@
       </c>
     </row>
     <row r="16" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
+      <c r="A16" s="3">
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -1190,10 +1182,10 @@
         <f t="shared" si="0"/>
         <v>2374.9000000000005</v>
       </c>
-      <c r="F16" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G16" s="5">
+      <c r="F16" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G16" s="4">
         <v>44818</v>
       </c>
       <c r="H16" s="1">
@@ -1212,7 +1204,7 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
+      <c r="A17" s="3">
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -1229,10 +1221,10 @@
         <f t="shared" si="0"/>
         <v>2425.5</v>
       </c>
-      <c r="F17" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G17" s="5">
+      <c r="F17" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G17" s="4">
         <v>44819</v>
       </c>
       <c r="H17" s="1">
@@ -1251,7 +1243,7 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
+      <c r="A18" s="3">
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -1268,10 +1260,10 @@
         <f t="shared" si="0"/>
         <v>2475</v>
       </c>
-      <c r="F18" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G18" s="5">
+      <c r="F18" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G18" s="4">
         <v>44820</v>
       </c>
       <c r="H18" s="1">
@@ -1290,7 +1282,7 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
+      <c r="A19" s="3">
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -1307,10 +1299,10 @@
         <f t="shared" si="0"/>
         <v>2523.4</v>
       </c>
-      <c r="F19" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G19" s="5">
+      <c r="F19" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G19" s="4">
         <v>44821</v>
       </c>
       <c r="H19" s="1">
@@ -1329,7 +1321,7 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
+      <c r="A20" s="3">
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -1346,10 +1338,10 @@
         <f t="shared" si="0"/>
         <v>2570.7000000000003</v>
       </c>
-      <c r="F20" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G20" s="5">
+      <c r="F20" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G20" s="4">
         <v>44822</v>
       </c>
       <c r="H20" s="1">
@@ -1368,7 +1360,7 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
+      <c r="A21" s="3">
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -1385,10 +1377,10 @@
         <f t="shared" si="0"/>
         <v>2616.9000000000005</v>
       </c>
-      <c r="F21" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G21" s="5">
+      <c r="F21" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G21" s="4">
         <v>44823</v>
       </c>
       <c r="H21" s="1">
@@ -1407,7 +1399,7 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
+      <c r="A22" s="3">
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -1424,10 +1416,10 @@
         <f t="shared" si="0"/>
         <v>2662</v>
       </c>
-      <c r="F22" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G22" s="5">
+      <c r="F22" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G22" s="4">
         <v>44824</v>
       </c>
       <c r="H22" s="1">
@@ -1446,7 +1438,7 @@
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="2">
+      <c r="A23" s="3">
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -1463,10 +1455,10 @@
         <f t="shared" si="0"/>
         <v>2706</v>
       </c>
-      <c r="F23" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G23" s="5">
+      <c r="F23" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G23" s="4">
         <v>44825</v>
       </c>
       <c r="H23" s="1">
@@ -1485,7 +1477,7 @@
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="2">
+      <c r="A24" s="3">
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -1502,10 +1494,10 @@
         <f t="shared" si="0"/>
         <v>2748.9</v>
       </c>
-      <c r="F24" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G24" s="5">
+      <c r="F24" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G24" s="4">
         <v>44826</v>
       </c>
       <c r="H24" s="1">
@@ -1524,7 +1516,7 @@
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="2">
+      <c r="A25" s="3">
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -1541,10 +1533,10 @@
         <f t="shared" si="0"/>
         <v>2790.7000000000003</v>
       </c>
-      <c r="F25" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G25" s="5">
+      <c r="F25" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G25" s="4">
         <v>44827</v>
       </c>
       <c r="H25" s="1">
@@ -1563,7 +1555,7 @@
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" s="2">
+      <c r="A26" s="3">
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -1580,10 +1572,10 @@
         <f t="shared" si="0"/>
         <v>2831.4000000000005</v>
       </c>
-      <c r="F26" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G26" s="5">
+      <c r="F26" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G26" s="4">
         <v>44828</v>
       </c>
       <c r="H26" s="1">
@@ -1602,7 +1594,7 @@
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="2">
+      <c r="A27" s="3">
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -1619,10 +1611,10 @@
         <f t="shared" si="0"/>
         <v>2871.0000000000005</v>
       </c>
-      <c r="F27" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G27" s="5">
+      <c r="F27" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G27" s="4">
         <v>44829</v>
       </c>
       <c r="H27" s="1">
@@ -1641,7 +1633,7 @@
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="2">
+      <c r="A28" s="3">
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -1658,10 +1650,10 @@
         <f t="shared" si="0"/>
         <v>2909.5</v>
       </c>
-      <c r="F28" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G28" s="5">
+      <c r="F28" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G28" s="4">
         <v>44830</v>
       </c>
       <c r="H28" s="1">
@@ -1680,7 +1672,7 @@
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="2">
+      <c r="A29" s="3">
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -1697,10 +1689,10 @@
         <f t="shared" si="0"/>
         <v>2946.9</v>
       </c>
-      <c r="F29" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G29" s="5">
+      <c r="F29" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G29" s="4">
         <v>44831</v>
       </c>
       <c r="H29" s="1">
@@ -1719,7 +1711,7 @@
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" s="2">
+      <c r="A30" s="3">
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -1736,10 +1728,10 @@
         <f t="shared" si="0"/>
         <v>2983.2000000000003</v>
       </c>
-      <c r="F30" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G30" s="5">
+      <c r="F30" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G30" s="4">
         <v>44832</v>
       </c>
       <c r="H30" s="1">
@@ -1758,7 +1750,7 @@
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" s="2">
+      <c r="A31" s="3">
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -1775,10 +1767,10 @@
         <f t="shared" si="0"/>
         <v>3018.4000000000005</v>
       </c>
-      <c r="F31" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G31" s="5">
+      <c r="F31" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G31" s="4">
         <v>44833</v>
       </c>
       <c r="H31" s="1">
@@ -1797,7 +1789,7 @@
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" s="2">
+      <c r="A32" s="3">
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -1814,10 +1806,10 @@
         <f t="shared" si="0"/>
         <v>3052.5000000000005</v>
       </c>
-      <c r="F32" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G32" s="5">
+      <c r="F32" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G32" s="4">
         <v>44834</v>
       </c>
       <c r="H32" s="1">
@@ -1836,7 +1828,7 @@
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" s="2">
+      <c r="A33" s="3">
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
@@ -1853,10 +1845,10 @@
         <f t="shared" si="0"/>
         <v>3085.5</v>
       </c>
-      <c r="F33" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G33" s="5">
+      <c r="F33" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G33" s="4">
         <v>44835</v>
       </c>
       <c r="H33" s="1">
@@ -1875,7 +1867,7 @@
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34" s="2">
+      <c r="A34" s="3">
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
@@ -1892,10 +1884,10 @@
         <f t="shared" si="0"/>
         <v>3117.4</v>
       </c>
-      <c r="F34" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G34" s="5">
+      <c r="F34" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G34" s="4">
         <v>44836</v>
       </c>
       <c r="H34" s="1">
@@ -1914,7 +1906,7 @@
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A35" s="2">
+      <c r="A35" s="3">
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
@@ -1931,10 +1923,10 @@
         <f t="shared" si="0"/>
         <v>1574.1000000000001</v>
       </c>
-      <c r="F35" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G35" s="5">
+      <c r="F35" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G35" s="4">
         <v>44837</v>
       </c>
       <c r="H35" s="1">
@@ -1953,7 +1945,7 @@
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A36" s="2">
+      <c r="A36" s="3">
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
@@ -1970,10 +1962,10 @@
         <f t="shared" si="0"/>
         <v>1588.95</v>
       </c>
-      <c r="F36" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G36" s="5">
+      <c r="F36" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G36" s="4">
         <v>44838</v>
       </c>
       <c r="H36" s="1">
@@ -1992,7 +1984,7 @@
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A37" s="2">
+      <c r="A37" s="3">
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
@@ -2009,10 +2001,10 @@
         <f t="shared" si="0"/>
         <v>1603.2500000000002</v>
       </c>
-      <c r="F37" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G37" s="5">
+      <c r="F37" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G37" s="4">
         <v>44839</v>
       </c>
       <c r="H37" s="1">
@@ -2031,7 +2023,7 @@
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A38" s="2">
+      <c r="A38" s="3">
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
@@ -2048,10 +2040,10 @@
         <f t="shared" si="0"/>
         <v>1617.0000000000002</v>
       </c>
-      <c r="F38" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G38" s="5">
+      <c r="F38" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G38" s="4">
         <v>44840</v>
       </c>
       <c r="H38" s="1">
@@ -2109,30 +2101,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
-</worksheet>
 </file>
--- a/LR3/table_1_30.xlsx
+++ b/LR3/table_1_30.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E29AE89-9AF7-436B-96A4-8CBC6795B6C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{089B4145-D031-4DB0-97E5-00A48AD80EFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -570,7 +570,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AQ43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
@@ -698,6 +700,7 @@
     </row>
     <row r="4" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
+        <f>A3+1</f>
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -737,6 +740,7 @@
     </row>
     <row r="5" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
+        <f t="shared" ref="A5:A38" si="3">A4+1</f>
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -776,6 +780,7 @@
     </row>
     <row r="6" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -815,6 +820,7 @@
     </row>
     <row r="7" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -854,6 +860,7 @@
     </row>
     <row r="8" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -893,6 +900,7 @@
     </row>
     <row r="9" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -932,6 +940,7 @@
     </row>
     <row r="10" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -971,6 +980,7 @@
     </row>
     <row r="11" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -1010,6 +1020,7 @@
     </row>
     <row r="12" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -1049,6 +1060,7 @@
     </row>
     <row r="13" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -1088,6 +1100,7 @@
     </row>
     <row r="14" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -1127,6 +1140,7 @@
     </row>
     <row r="15" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -1166,6 +1180,7 @@
     </row>
     <row r="16" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -1205,6 +1220,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -1244,6 +1260,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -1283,6 +1300,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -1322,6 +1340,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -1361,6 +1380,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -1400,6 +1420,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -1439,6 +1460,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
+        <f t="shared" si="3"/>
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -1478,6 +1500,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -1517,6 +1540,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
+        <f t="shared" si="3"/>
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -1556,6 +1580,7 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -1595,6 +1620,7 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -1634,6 +1660,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
+        <f t="shared" si="3"/>
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -1673,6 +1700,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
+        <f t="shared" si="3"/>
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -1712,6 +1740,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
+        <f t="shared" si="3"/>
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -1751,6 +1780,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
+        <f t="shared" si="3"/>
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -1790,6 +1820,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -1829,6 +1860,7 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
+        <f t="shared" si="3"/>
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
@@ -1868,6 +1900,7 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
+        <f t="shared" si="3"/>
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
@@ -1907,6 +1940,7 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
+        <f t="shared" si="3"/>
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
@@ -1946,6 +1980,7 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
+        <f t="shared" si="3"/>
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
@@ -1985,6 +2020,7 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
+        <f t="shared" si="3"/>
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
@@ -2024,6 +2060,7 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
+        <f t="shared" si="3"/>
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">

--- a/LR3/table_1_30.xlsx
+++ b/LR3/table_1_30.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{089B4145-D031-4DB0-97E5-00A48AD80EFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{438FC120-C9DC-42B3-B4B3-211EB1E254FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -75,18 +75,6 @@
     <t>Куропаткин 3</t>
   </si>
   <si>
-    <t>88641 рубль</t>
-  </si>
-  <si>
-    <t>61,25 кв.м.</t>
-  </si>
-  <si>
-    <t>27 дней</t>
-  </si>
-  <si>
-    <t>3347,4 рубля</t>
-  </si>
-  <si>
     <t>Адельвахаб</t>
   </si>
   <si>
@@ -178,6 +166,18 @@
   </si>
   <si>
     <t>Шарафан</t>
+  </si>
+  <si>
+    <t>Общая сумма, руб.</t>
+  </si>
+  <si>
+    <t>Средняя площадь, кв.м.</t>
+  </si>
+  <si>
+    <t>Максимальный срок просрочки, дней</t>
+  </si>
+  <si>
+    <t>Максимальная сумма, руб.</t>
   </si>
 </sst>
 </file>
@@ -229,7 +229,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -571,13 +573,13 @@
   <dimension ref="A1:AQ43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="32.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="39.44140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="18.44140625" style="1" customWidth="1"/>
     <col min="4" max="5" width="9.109375" style="1"/>
     <col min="6" max="6" width="13.88671875" style="1" customWidth="1"/>
@@ -663,17 +665,17 @@
       <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="1">
+      <c r="B3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="2">
         <v>70</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="2">
         <f>21*1.1</f>
         <v>23.1</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="2">
         <f>D3*C3</f>
         <v>1617</v>
       </c>
@@ -683,17 +685,18 @@
       <c r="G3" s="4">
         <v>44805</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="2">
+        <f>IF(G3&gt;F3,G3-F3,0)</f>
         <v>0</v>
       </c>
-      <c r="I3" s="1">
-        <v>10</v>
-      </c>
-      <c r="J3" s="1">
+      <c r="I3" s="2">
+        <v>10</v>
+      </c>
+      <c r="J3" s="2">
         <f>H3*I3</f>
         <v>0</v>
       </c>
-      <c r="K3" s="1">
+      <c r="K3" s="2">
         <f>E3+J3</f>
         <v>1617</v>
       </c>
@@ -703,1433 +706,1608 @@
         <f>A3+1</f>
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="1">
+      <c r="B4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="2">
+        <f>C3-0.5</f>
         <v>69.5</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="2">
         <f>22*1.1</f>
         <v>24.200000000000003</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="2">
         <f t="shared" ref="E4:E38" si="0">D4*C4</f>
         <v>1681.9</v>
       </c>
       <c r="F4" s="4">
+        <f>F3</f>
         <v>44813</v>
       </c>
       <c r="G4" s="4">
+        <f>G3+1</f>
         <v>44806</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="2">
+        <f t="shared" ref="H4:H38" si="1">IF(G4&gt;F4,G4-F4,0)</f>
         <v>0</v>
       </c>
-      <c r="I4" s="1">
-        <v>10</v>
-      </c>
-      <c r="J4" s="1">
-        <f t="shared" ref="J4:J38" si="1">H4*I4</f>
+      <c r="I4" s="2">
+        <f>I3</f>
+        <v>10</v>
+      </c>
+      <c r="J4" s="2">
+        <f t="shared" ref="J4:J38" si="2">H4*I4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="1">
-        <f t="shared" ref="K4:K38" si="2">E4+J4</f>
+      <c r="K4" s="2">
+        <f t="shared" ref="K4:K38" si="3">E4+J4</f>
         <v>1681.9</v>
       </c>
     </row>
     <row r="5" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
-        <f t="shared" ref="A5:A38" si="3">A4+1</f>
+        <f t="shared" ref="A5:A38" si="4">A4+1</f>
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="1">
+      <c r="B5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="2">
+        <f t="shared" ref="C5:C38" si="5">C4-0.5</f>
         <v>69</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="2">
         <f>23*1.1</f>
         <v>25.3</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="2">
         <f t="shared" si="0"/>
         <v>1745.7</v>
       </c>
       <c r="F5" s="4">
+        <f t="shared" ref="F5:F38" si="6">F4</f>
         <v>44813</v>
       </c>
       <c r="G5" s="4">
+        <f t="shared" ref="G5:G38" si="7">G4+1</f>
         <v>44807</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="2">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I5" s="1">
-        <v>10</v>
-      </c>
-      <c r="J5" s="1">
-        <f t="shared" si="1"/>
+      <c r="I5" s="2">
+        <f t="shared" ref="I5:I38" si="8">I4</f>
+        <v>10</v>
+      </c>
+      <c r="J5" s="2">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K5" s="1">
-        <f t="shared" si="2"/>
+      <c r="K5" s="2">
+        <f t="shared" si="3"/>
         <v>1745.7</v>
       </c>
     </row>
     <row r="6" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="1">
+      <c r="B6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="2">
+        <f t="shared" si="5"/>
         <v>68.5</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="2">
         <f>24*1.1</f>
         <v>26.400000000000002</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="2">
         <f t="shared" si="0"/>
         <v>1808.4</v>
       </c>
       <c r="F6" s="4">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G6" s="4">
+        <f t="shared" si="7"/>
         <v>44808</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="2">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I6" s="1">
-        <v>10</v>
-      </c>
-      <c r="J6" s="1">
-        <f t="shared" si="1"/>
+      <c r="I6" s="2">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J6" s="2">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K6" s="1">
-        <f t="shared" si="2"/>
+      <c r="K6" s="2">
+        <f t="shared" si="3"/>
         <v>1808.4</v>
       </c>
     </row>
     <row r="7" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="1">
+      <c r="B7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="2">
+        <f t="shared" si="5"/>
         <v>68</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="2">
         <f>1.1*25</f>
         <v>27.500000000000004</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="2">
         <f t="shared" si="0"/>
         <v>1870.0000000000002</v>
       </c>
       <c r="F7" s="4">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G7" s="4">
+        <f t="shared" si="7"/>
         <v>44809</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="2">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I7" s="1">
-        <v>10</v>
-      </c>
-      <c r="J7" s="1">
-        <f t="shared" si="1"/>
+      <c r="I7" s="2">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J7" s="2">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K7" s="1">
-        <f t="shared" si="2"/>
+      <c r="K7" s="2">
+        <f t="shared" si="3"/>
         <v>1870.0000000000002</v>
       </c>
     </row>
     <row r="8" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="1">
+      <c r="B8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="2">
+        <f t="shared" si="5"/>
         <v>67.5</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="2">
         <f>1.1*26</f>
         <v>28.6</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="2">
         <f t="shared" si="0"/>
         <v>1930.5</v>
       </c>
       <c r="F8" s="4">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G8" s="4">
+        <f t="shared" si="7"/>
         <v>44810</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="2">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I8" s="1">
-        <v>10</v>
-      </c>
-      <c r="J8" s="1">
-        <f t="shared" si="1"/>
+      <c r="I8" s="2">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J8" s="2">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K8" s="1">
-        <f t="shared" si="2"/>
+      <c r="K8" s="2">
+        <f t="shared" si="3"/>
         <v>1930.5</v>
       </c>
     </row>
     <row r="9" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="1">
+      <c r="B9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="2">
+        <f t="shared" si="5"/>
         <v>67</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="2">
         <f>1.1*27</f>
         <v>29.700000000000003</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="2">
         <f t="shared" si="0"/>
         <v>1989.9</v>
       </c>
       <c r="F9" s="4">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G9" s="4">
+        <f t="shared" si="7"/>
         <v>44811</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9" s="2">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I9" s="1">
-        <v>10</v>
-      </c>
-      <c r="J9" s="1">
-        <f t="shared" si="1"/>
+      <c r="I9" s="2">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J9" s="2">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K9" s="1">
-        <f t="shared" si="2"/>
+      <c r="K9" s="2">
+        <f t="shared" si="3"/>
         <v>1989.9</v>
       </c>
     </row>
     <row r="10" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="1">
+      <c r="B10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="2">
+        <f t="shared" si="5"/>
         <v>66.5</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="2">
         <f>1.1*28</f>
         <v>30.800000000000004</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="2">
         <f t="shared" si="0"/>
         <v>2048.2000000000003</v>
       </c>
       <c r="F10" s="4">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G10" s="4">
+        <f t="shared" si="7"/>
         <v>44812</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10" s="2">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I10" s="1">
-        <v>10</v>
-      </c>
-      <c r="J10" s="1">
-        <f t="shared" si="1"/>
+      <c r="I10" s="2">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J10" s="2">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K10" s="1">
-        <f t="shared" si="2"/>
+      <c r="K10" s="2">
+        <f t="shared" si="3"/>
         <v>2048.2000000000003</v>
       </c>
     </row>
     <row r="11" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="1">
+      <c r="B11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="2">
+        <f t="shared" si="5"/>
         <v>66</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="2">
         <f>1.1*29</f>
         <v>31.900000000000002</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="2">
         <f t="shared" si="0"/>
         <v>2105.4</v>
       </c>
       <c r="F11" s="4">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G11" s="4">
-        <v>44813</v>
-      </c>
-      <c r="H11" s="1">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="H11" s="2">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I11" s="1">
-        <v>10</v>
-      </c>
-      <c r="J11" s="1">
-        <f t="shared" si="1"/>
+      <c r="I11" s="2">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J11" s="2">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K11" s="1">
-        <f t="shared" si="2"/>
+      <c r="K11" s="2">
+        <f t="shared" si="3"/>
         <v>2105.4</v>
       </c>
     </row>
     <row r="12" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="1">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="2">
+        <f t="shared" si="5"/>
         <v>65.5</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="2">
         <f>1.1*30</f>
         <v>33</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="2">
         <f t="shared" si="0"/>
         <v>2161.5</v>
       </c>
       <c r="F12" s="4">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G12" s="4">
+        <f t="shared" si="7"/>
         <v>44814</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12" s="2">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I12" s="1">
-        <v>10</v>
-      </c>
-      <c r="J12" s="1">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="K12" s="1">
-        <f t="shared" si="2"/>
+      <c r="I12" s="2">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J12" s="2">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="K12" s="2">
+        <f t="shared" si="3"/>
         <v>2171.5</v>
       </c>
     </row>
     <row r="13" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="1">
+      <c r="B13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="2">
+        <f t="shared" si="5"/>
         <v>65</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="2">
         <f>1.1*31</f>
         <v>34.1</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="2">
         <f t="shared" si="0"/>
         <v>2216.5</v>
       </c>
       <c r="F13" s="4">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G13" s="4">
+        <f t="shared" si="7"/>
         <v>44815</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H13" s="2">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="I13" s="1">
-        <v>10</v>
-      </c>
-      <c r="J13" s="1">
-        <f t="shared" si="1"/>
+      <c r="I13" s="2">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J13" s="2">
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="K13" s="1">
-        <f t="shared" si="2"/>
+      <c r="K13" s="2">
+        <f t="shared" si="3"/>
         <v>2236.5</v>
       </c>
     </row>
     <row r="14" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="1">
+      <c r="B14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="2">
+        <f t="shared" si="5"/>
         <v>64.5</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="2">
         <f>1.1*32</f>
         <v>35.200000000000003</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="2">
         <f t="shared" si="0"/>
         <v>2270.4</v>
       </c>
       <c r="F14" s="4">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G14" s="4">
+        <f t="shared" si="7"/>
         <v>44816</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H14" s="2">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="I14" s="1">
-        <v>10</v>
-      </c>
-      <c r="J14" s="1">
-        <f t="shared" si="1"/>
+      <c r="I14" s="2">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J14" s="2">
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="K14" s="1">
-        <f t="shared" si="2"/>
+      <c r="K14" s="2">
+        <f t="shared" si="3"/>
         <v>2300.4</v>
       </c>
     </row>
     <row r="15" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="1">
+      <c r="B15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="2">
+        <f t="shared" si="5"/>
         <v>64</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="2">
         <f>1.1*33</f>
         <v>36.300000000000004</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="2">
         <f t="shared" si="0"/>
         <v>2323.2000000000003</v>
       </c>
       <c r="F15" s="4">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G15" s="4">
+        <f t="shared" si="7"/>
         <v>44817</v>
       </c>
-      <c r="H15" s="1">
+      <c r="H15" s="2">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="I15" s="1">
-        <v>10</v>
-      </c>
-      <c r="J15" s="1">
-        <f t="shared" si="1"/>
+      <c r="I15" s="2">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J15" s="2">
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
-      <c r="K15" s="1">
-        <f t="shared" si="2"/>
+      <c r="K15" s="2">
+        <f t="shared" si="3"/>
         <v>2363.2000000000003</v>
       </c>
     </row>
     <row r="16" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="1">
+      <c r="B16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="2">
+        <f t="shared" si="5"/>
         <v>63.5</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="2">
         <f>1.1*34</f>
         <v>37.400000000000006</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="2">
         <f t="shared" si="0"/>
         <v>2374.9000000000005</v>
       </c>
       <c r="F16" s="4">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G16" s="4">
+        <f t="shared" si="7"/>
         <v>44818</v>
       </c>
-      <c r="H16" s="1">
+      <c r="H16" s="2">
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="I16" s="1">
-        <v>10</v>
-      </c>
-      <c r="J16" s="1">
-        <f t="shared" si="1"/>
+      <c r="I16" s="2">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J16" s="2">
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="K16" s="1">
-        <f t="shared" si="2"/>
+      <c r="K16" s="2">
+        <f t="shared" si="3"/>
         <v>2424.9000000000005</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="1">
+      <c r="B17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="2">
+        <f t="shared" si="5"/>
         <v>63</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="2">
         <f>1.1*35</f>
         <v>38.5</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="2">
         <f t="shared" si="0"/>
         <v>2425.5</v>
       </c>
       <c r="F17" s="4">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G17" s="4">
+        <f t="shared" si="7"/>
         <v>44819</v>
       </c>
-      <c r="H17" s="1">
+      <c r="H17" s="2">
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="I17" s="1">
-        <v>10</v>
-      </c>
-      <c r="J17" s="1">
-        <f t="shared" si="1"/>
+      <c r="I17" s="2">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J17" s="2">
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
-      <c r="K17" s="1">
-        <f t="shared" si="2"/>
+      <c r="K17" s="2">
+        <f t="shared" si="3"/>
         <v>2485.5</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="1">
+      <c r="B18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="2">
+        <f t="shared" si="5"/>
         <v>62.5</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="2">
         <f>1.1*36</f>
         <v>39.6</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="2">
         <f t="shared" si="0"/>
         <v>2475</v>
       </c>
       <c r="F18" s="4">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G18" s="4">
+        <f t="shared" si="7"/>
         <v>44820</v>
       </c>
-      <c r="H18" s="1">
+      <c r="H18" s="2">
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="I18" s="1">
-        <v>10</v>
-      </c>
-      <c r="J18" s="1">
-        <f t="shared" si="1"/>
+      <c r="I18" s="2">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J18" s="2">
+        <f t="shared" si="2"/>
         <v>70</v>
       </c>
-      <c r="K18" s="1">
-        <f t="shared" si="2"/>
+      <c r="K18" s="2">
+        <f t="shared" si="3"/>
         <v>2545</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="1">
+      <c r="B19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="2">
+        <f t="shared" si="5"/>
         <v>62</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="2">
         <f>1.1*37</f>
         <v>40.700000000000003</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="2">
         <f t="shared" si="0"/>
         <v>2523.4</v>
       </c>
       <c r="F19" s="4">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G19" s="4">
+        <f t="shared" si="7"/>
         <v>44821</v>
       </c>
-      <c r="H19" s="1">
+      <c r="H19" s="2">
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="I19" s="1">
-        <v>10</v>
-      </c>
-      <c r="J19" s="1">
-        <f t="shared" si="1"/>
+      <c r="I19" s="2">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J19" s="2">
+        <f t="shared" si="2"/>
         <v>80</v>
       </c>
-      <c r="K19" s="1">
-        <f t="shared" si="2"/>
+      <c r="K19" s="2">
+        <f t="shared" si="3"/>
         <v>2603.4</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" s="1">
+      <c r="B20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="2">
+        <f t="shared" si="5"/>
         <v>61.5</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="2">
         <f>1.1*38</f>
         <v>41.800000000000004</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="2">
         <f t="shared" si="0"/>
         <v>2570.7000000000003</v>
       </c>
       <c r="F20" s="4">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G20" s="4">
+        <f t="shared" si="7"/>
         <v>44822</v>
       </c>
-      <c r="H20" s="1">
+      <c r="H20" s="2">
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="I20" s="1">
-        <v>10</v>
-      </c>
-      <c r="J20" s="1">
-        <f t="shared" si="1"/>
+      <c r="I20" s="2">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J20" s="2">
+        <f t="shared" si="2"/>
         <v>90</v>
       </c>
-      <c r="K20" s="1">
-        <f t="shared" si="2"/>
+      <c r="K20" s="2">
+        <f t="shared" si="3"/>
         <v>2660.7000000000003</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>19</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" s="1">
+      <c r="B21" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="2">
+        <f t="shared" si="5"/>
         <v>61</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="2">
         <f>1.1*39</f>
         <v>42.900000000000006</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="2">
         <f t="shared" si="0"/>
         <v>2616.9000000000005</v>
       </c>
       <c r="F21" s="4">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G21" s="4">
+        <f t="shared" si="7"/>
         <v>44823</v>
       </c>
-      <c r="H21" s="1">
-        <v>10</v>
-      </c>
-      <c r="I21" s="1">
-        <v>10</v>
-      </c>
-      <c r="J21" s="1">
-        <f t="shared" si="1"/>
+      <c r="H21" s="2">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="I21" s="2">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J21" s="2">
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="K21" s="1">
-        <f t="shared" si="2"/>
+      <c r="K21" s="2">
+        <f t="shared" si="3"/>
         <v>2716.9000000000005</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="1">
+      <c r="B22" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="2">
+        <f t="shared" si="5"/>
         <v>60.5</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="2">
         <f>1.1*40</f>
         <v>44</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="2">
         <f t="shared" si="0"/>
         <v>2662</v>
       </c>
       <c r="F22" s="4">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G22" s="4">
+        <f t="shared" si="7"/>
         <v>44824</v>
       </c>
-      <c r="H22" s="1">
+      <c r="H22" s="2">
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="I22" s="1">
-        <v>10</v>
-      </c>
-      <c r="J22" s="1">
-        <f t="shared" si="1"/>
+      <c r="I22" s="2">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J22" s="2">
+        <f t="shared" si="2"/>
         <v>110</v>
       </c>
-      <c r="K22" s="1">
-        <f t="shared" si="2"/>
+      <c r="K22" s="2">
+        <f t="shared" si="3"/>
         <v>2772</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>21</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23" s="1">
+      <c r="B23" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="2">
+        <f t="shared" si="5"/>
         <v>60</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="2">
         <f>1.1*41</f>
         <v>45.1</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23" s="2">
         <f t="shared" si="0"/>
         <v>2706</v>
       </c>
       <c r="F23" s="4">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G23" s="4">
+        <f t="shared" si="7"/>
         <v>44825</v>
       </c>
-      <c r="H23" s="1">
+      <c r="H23" s="2">
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="I23" s="1">
-        <v>10</v>
-      </c>
-      <c r="J23" s="1">
-        <f t="shared" si="1"/>
+      <c r="I23" s="2">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J23" s="2">
+        <f t="shared" si="2"/>
         <v>120</v>
       </c>
-      <c r="K23" s="1">
-        <f t="shared" si="2"/>
+      <c r="K23" s="2">
+        <f t="shared" si="3"/>
         <v>2826</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" s="1">
+      <c r="B24" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="2">
+        <f t="shared" si="5"/>
         <v>59.5</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="2">
         <f>1.1*42</f>
         <v>46.2</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24" s="2">
         <f t="shared" si="0"/>
         <v>2748.9</v>
       </c>
       <c r="F24" s="4">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G24" s="4">
+        <f t="shared" si="7"/>
         <v>44826</v>
       </c>
-      <c r="H24" s="1">
+      <c r="H24" s="2">
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="I24" s="1">
-        <v>10</v>
-      </c>
-      <c r="J24" s="1">
-        <f t="shared" si="1"/>
+      <c r="I24" s="2">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J24" s="2">
+        <f t="shared" si="2"/>
         <v>130</v>
       </c>
-      <c r="K24" s="1">
-        <f t="shared" si="2"/>
+      <c r="K24" s="2">
+        <f t="shared" si="3"/>
         <v>2878.9</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>23</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C25" s="1">
+      <c r="B25" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="2">
+        <f t="shared" si="5"/>
         <v>59</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25" s="2">
         <f>1.1*43</f>
         <v>47.300000000000004</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25" s="2">
         <f t="shared" si="0"/>
         <v>2790.7000000000003</v>
       </c>
       <c r="F25" s="4">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G25" s="4">
+        <f t="shared" si="7"/>
         <v>44827</v>
       </c>
-      <c r="H25" s="1">
+      <c r="H25" s="2">
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="I25" s="1">
-        <v>10</v>
-      </c>
-      <c r="J25" s="1">
-        <f t="shared" si="1"/>
+      <c r="I25" s="2">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J25" s="2">
+        <f t="shared" si="2"/>
         <v>140</v>
       </c>
-      <c r="K25" s="1">
-        <f t="shared" si="2"/>
+      <c r="K25" s="2">
+        <f t="shared" si="3"/>
         <v>2930.7000000000003</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C26" s="1">
+      <c r="B26" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" s="2">
+        <f t="shared" si="5"/>
         <v>58.5</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26" s="2">
         <f>1.1*44</f>
         <v>48.400000000000006</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26" s="2">
         <f t="shared" si="0"/>
         <v>2831.4000000000005</v>
       </c>
       <c r="F26" s="4">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G26" s="4">
+        <f t="shared" si="7"/>
         <v>44828</v>
       </c>
-      <c r="H26" s="1">
+      <c r="H26" s="2">
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="I26" s="1">
-        <v>10</v>
-      </c>
-      <c r="J26" s="1">
-        <f t="shared" si="1"/>
+      <c r="I26" s="2">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J26" s="2">
+        <f t="shared" si="2"/>
         <v>150</v>
       </c>
-      <c r="K26" s="1">
-        <f t="shared" si="2"/>
+      <c r="K26" s="2">
+        <f t="shared" si="3"/>
         <v>2981.4000000000005</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C27" s="1">
+      <c r="B27" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="2">
+        <f t="shared" si="5"/>
         <v>58</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27" s="2">
         <f>1.1*45</f>
         <v>49.500000000000007</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27" s="2">
         <f t="shared" si="0"/>
         <v>2871.0000000000005</v>
       </c>
       <c r="F27" s="4">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G27" s="4">
+        <f t="shared" si="7"/>
         <v>44829</v>
       </c>
-      <c r="H27" s="1">
+      <c r="H27" s="2">
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="I27" s="1">
-        <v>10</v>
-      </c>
-      <c r="J27" s="1">
-        <f t="shared" si="1"/>
+      <c r="I27" s="2">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J27" s="2">
+        <f t="shared" si="2"/>
         <v>160</v>
       </c>
-      <c r="K27" s="1">
-        <f t="shared" si="2"/>
+      <c r="K27" s="2">
+        <f t="shared" si="3"/>
         <v>3031.0000000000005</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C28" s="1">
+      <c r="B28" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="2">
+        <f t="shared" si="5"/>
         <v>57.5</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28" s="2">
         <f>1.1*46</f>
         <v>50.6</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E28" s="2">
         <f t="shared" si="0"/>
         <v>2909.5</v>
       </c>
       <c r="F28" s="4">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G28" s="4">
+        <f t="shared" si="7"/>
         <v>44830</v>
       </c>
-      <c r="H28" s="1">
+      <c r="H28" s="2">
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="I28" s="1">
-        <v>10</v>
-      </c>
-      <c r="J28" s="1">
-        <f t="shared" si="1"/>
+      <c r="I28" s="2">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J28" s="2">
+        <f t="shared" si="2"/>
         <v>170</v>
       </c>
-      <c r="K28" s="1">
-        <f t="shared" si="2"/>
+      <c r="K28" s="2">
+        <f t="shared" si="3"/>
         <v>3079.5</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>27</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C29" s="1">
+      <c r="B29" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" s="2">
+        <f t="shared" si="5"/>
         <v>57</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29" s="2">
         <f>1.1*47</f>
         <v>51.7</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E29" s="2">
         <f t="shared" si="0"/>
         <v>2946.9</v>
       </c>
       <c r="F29" s="4">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G29" s="4">
+        <f t="shared" si="7"/>
         <v>44831</v>
       </c>
-      <c r="H29" s="1">
+      <c r="H29" s="2">
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="I29" s="1">
-        <v>10</v>
-      </c>
-      <c r="J29" s="1">
-        <f t="shared" si="1"/>
+      <c r="I29" s="2">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J29" s="2">
+        <f t="shared" si="2"/>
         <v>180</v>
       </c>
-      <c r="K29" s="1">
-        <f t="shared" si="2"/>
+      <c r="K29" s="2">
+        <f t="shared" si="3"/>
         <v>3126.9</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>28</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C30" s="1">
+      <c r="B30" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" s="2">
+        <f t="shared" si="5"/>
         <v>56.5</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30" s="2">
         <f>1.1*48</f>
         <v>52.800000000000004</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E30" s="2">
         <f t="shared" si="0"/>
         <v>2983.2000000000003</v>
       </c>
       <c r="F30" s="4">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G30" s="4">
+        <f t="shared" si="7"/>
         <v>44832</v>
       </c>
-      <c r="H30" s="1">
+      <c r="H30" s="2">
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="I30" s="1">
-        <v>10</v>
-      </c>
-      <c r="J30" s="1">
-        <f t="shared" si="1"/>
+      <c r="I30" s="2">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J30" s="2">
+        <f t="shared" si="2"/>
         <v>190</v>
       </c>
-      <c r="K30" s="1">
-        <f t="shared" si="2"/>
+      <c r="K30" s="2">
+        <f t="shared" si="3"/>
         <v>3173.2000000000003</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>29</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C31" s="1">
+      <c r="B31" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" s="2">
+        <f t="shared" si="5"/>
         <v>56</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31" s="2">
         <f>1.1*49</f>
         <v>53.900000000000006</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E31" s="2">
         <f t="shared" si="0"/>
         <v>3018.4000000000005</v>
       </c>
       <c r="F31" s="4">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G31" s="4">
+        <f t="shared" si="7"/>
         <v>44833</v>
       </c>
-      <c r="H31" s="1">
+      <c r="H31" s="2">
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="I31" s="1">
-        <v>10</v>
-      </c>
-      <c r="J31" s="1">
-        <f t="shared" si="1"/>
+      <c r="I31" s="2">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J31" s="2">
+        <f t="shared" si="2"/>
         <v>200</v>
       </c>
-      <c r="K31" s="1">
-        <f t="shared" si="2"/>
+      <c r="K31" s="2">
+        <f t="shared" si="3"/>
         <v>3218.4000000000005</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C32" s="1">
+      <c r="B32" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32" s="2">
+        <f t="shared" si="5"/>
         <v>55.5</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D32" s="2">
         <f>1.1*50</f>
         <v>55.000000000000007</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E32" s="2">
         <f t="shared" si="0"/>
         <v>3052.5000000000005</v>
       </c>
       <c r="F32" s="4">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G32" s="4">
+        <f t="shared" si="7"/>
         <v>44834</v>
       </c>
-      <c r="H32" s="1">
+      <c r="H32" s="2">
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="I32" s="1">
-        <v>10</v>
-      </c>
-      <c r="J32" s="1">
-        <f t="shared" si="1"/>
+      <c r="I32" s="2">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J32" s="2">
+        <f t="shared" si="2"/>
         <v>210</v>
       </c>
-      <c r="K32" s="1">
-        <f t="shared" si="2"/>
+      <c r="K32" s="2">
+        <f t="shared" si="3"/>
         <v>3262.5000000000005</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>31</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C33" s="1">
+      <c r="B33" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33" s="2">
+        <f t="shared" si="5"/>
         <v>55</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D33" s="2">
         <f>1.1*51</f>
         <v>56.1</v>
       </c>
-      <c r="E33" s="1">
+      <c r="E33" s="2">
         <f t="shared" si="0"/>
         <v>3085.5</v>
       </c>
       <c r="F33" s="4">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G33" s="4">
+        <f t="shared" si="7"/>
         <v>44835</v>
       </c>
-      <c r="H33" s="1">
+      <c r="H33" s="2">
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="I33" s="1">
-        <v>10</v>
-      </c>
-      <c r="J33" s="1">
-        <f t="shared" si="1"/>
+      <c r="I33" s="2">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J33" s="2">
+        <f t="shared" si="2"/>
         <v>220</v>
       </c>
-      <c r="K33" s="1">
-        <f t="shared" si="2"/>
+      <c r="K33" s="2">
+        <f t="shared" si="3"/>
         <v>3305.5</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C34" s="2">
+        <f t="shared" si="5"/>
         <v>54.5</v>
       </c>
-      <c r="D34" s="1">
+      <c r="D34" s="2">
         <f>1.1*52</f>
         <v>57.2</v>
       </c>
-      <c r="E34" s="1">
+      <c r="E34" s="2">
         <f t="shared" si="0"/>
         <v>3117.4</v>
       </c>
       <c r="F34" s="4">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G34" s="4">
+        <f t="shared" si="7"/>
         <v>44836</v>
       </c>
-      <c r="H34" s="1">
+      <c r="H34" s="2">
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="I34" s="1">
-        <v>10</v>
-      </c>
-      <c r="J34" s="1">
-        <f t="shared" si="1"/>
+      <c r="I34" s="2">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J34" s="2">
+        <f t="shared" si="2"/>
         <v>230</v>
       </c>
-      <c r="K34" s="1">
-        <f t="shared" si="2"/>
+      <c r="K34" s="2">
+        <f t="shared" si="3"/>
         <v>3347.4</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>33</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C35" s="2">
+        <f t="shared" si="5"/>
         <v>54</v>
       </c>
-      <c r="D35" s="1">
+      <c r="D35" s="2">
         <f>1.1*53/2</f>
         <v>29.150000000000002</v>
       </c>
-      <c r="E35" s="1">
+      <c r="E35" s="2">
         <f t="shared" si="0"/>
         <v>1574.1000000000001</v>
       </c>
       <c r="F35" s="4">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G35" s="4">
+        <f t="shared" si="7"/>
         <v>44837</v>
       </c>
-      <c r="H35" s="1">
+      <c r="H35" s="2">
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="I35" s="1">
-        <v>10</v>
-      </c>
-      <c r="J35" s="1">
-        <f t="shared" si="1"/>
+      <c r="I35" s="2">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J35" s="2">
+        <f t="shared" si="2"/>
         <v>240</v>
       </c>
-      <c r="K35" s="1">
-        <f t="shared" si="2"/>
+      <c r="K35" s="2">
+        <f t="shared" si="3"/>
         <v>1814.1000000000001</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>34</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C36" s="2">
+        <f t="shared" si="5"/>
         <v>53.5</v>
       </c>
-      <c r="D36" s="1">
+      <c r="D36" s="2">
         <f>1.1*54/2</f>
         <v>29.700000000000003</v>
       </c>
-      <c r="E36" s="1">
+      <c r="E36" s="2">
         <f t="shared" si="0"/>
         <v>1588.95</v>
       </c>
       <c r="F36" s="4">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G36" s="4">
+        <f t="shared" si="7"/>
         <v>44838</v>
       </c>
-      <c r="H36" s="1">
+      <c r="H36" s="2">
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="I36" s="1">
-        <v>10</v>
-      </c>
-      <c r="J36" s="1">
-        <f t="shared" si="1"/>
+      <c r="I36" s="2">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J36" s="2">
+        <f t="shared" si="2"/>
         <v>250</v>
       </c>
-      <c r="K36" s="1">
-        <f t="shared" si="2"/>
+      <c r="K36" s="2">
+        <f t="shared" si="3"/>
         <v>1838.95</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>35</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C37" s="2">
+        <f t="shared" si="5"/>
         <v>53</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D37" s="2">
         <f>1.1*55/2</f>
         <v>30.250000000000004</v>
       </c>
-      <c r="E37" s="1">
+      <c r="E37" s="2">
         <f t="shared" si="0"/>
         <v>1603.2500000000002</v>
       </c>
       <c r="F37" s="4">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G37" s="4">
+        <f t="shared" si="7"/>
         <v>44839</v>
       </c>
-      <c r="H37" s="1">
+      <c r="H37" s="2">
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="I37" s="1">
-        <v>10</v>
-      </c>
-      <c r="J37" s="1">
-        <f t="shared" si="1"/>
+      <c r="I37" s="2">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J37" s="2">
+        <f t="shared" si="2"/>
         <v>260</v>
       </c>
-      <c r="K37" s="1">
-        <f t="shared" si="2"/>
+      <c r="K37" s="2">
+        <f t="shared" si="3"/>
         <v>1863.2500000000002</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>36</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C38" s="2">
+        <f t="shared" si="5"/>
         <v>52.5</v>
       </c>
-      <c r="D38" s="1">
+      <c r="D38" s="2">
         <f>1.1*56/2</f>
         <v>30.800000000000004</v>
       </c>
-      <c r="E38" s="1">
+      <c r="E38" s="2">
         <f t="shared" si="0"/>
         <v>1617.0000000000002</v>
       </c>
       <c r="F38" s="4">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G38" s="4">
+        <f t="shared" si="7"/>
         <v>44840</v>
       </c>
-      <c r="H38" s="1">
+      <c r="H38" s="2">
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="I38" s="1">
-        <v>10</v>
-      </c>
-      <c r="J38" s="1">
-        <f t="shared" si="1"/>
+      <c r="I38" s="2">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J38" s="2">
+        <f t="shared" si="2"/>
         <v>270</v>
       </c>
-      <c r="K38" s="1">
-        <f t="shared" si="2"/>
+      <c r="K38" s="2">
+        <f t="shared" si="3"/>
         <v>1887.0000000000002</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B40" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C40" s="1">
-        <f>SUM(K3:K38)</f>
-        <v>88641.7</v>
+      <c r="B40" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C40" s="2">
+        <f>FLOOR(SUM(K3:K38),1)</f>
+        <v>88641</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B41" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C41" s="1">
-        <f>SUM(C3:C38)/36</f>
+      <c r="B41" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C41" s="2">
+        <f>AVERAGE(C3:C38)</f>
         <v>61.25</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B42" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C42" s="1">
+      <c r="B42" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C42" s="2">
         <f>MAX(H3:H38)</f>
         <v>27</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B43" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C43" s="1">
+      <c r="B43" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C43" s="2">
         <f>MAX(K3:K38)</f>
         <v>3347.4</v>
       </c>

--- a/LR3/table_1_30.xlsx
+++ b/LR3/table_1_30.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{438FC120-C9DC-42B3-B4B3-211EB1E254FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{864EBAA3-2E6E-4800-B69C-6FE036A918F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -573,7 +573,7 @@
   <dimension ref="A1:AQ43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -672,12 +672,12 @@
         <v>70</v>
       </c>
       <c r="D3" s="2">
-        <f>21*1.1</f>
-        <v>23.1</v>
+        <f>A1*1.1</f>
+        <v>33</v>
       </c>
       <c r="E3" s="2">
         <f>D3*C3</f>
-        <v>1617</v>
+        <v>2310</v>
       </c>
       <c r="F3" s="4">
         <v>44813</v>
@@ -698,7 +698,7 @@
       </c>
       <c r="K3" s="2">
         <f>E3+J3</f>
-        <v>1617</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="4" spans="1:43" x14ac:dyDescent="0.3">
@@ -714,12 +714,12 @@
         <v>69.5</v>
       </c>
       <c r="D4" s="2">
-        <f>22*1.1</f>
-        <v>24.200000000000003</v>
+        <f>D3</f>
+        <v>33</v>
       </c>
       <c r="E4" s="2">
         <f t="shared" ref="E4:E38" si="0">D4*C4</f>
-        <v>1681.9</v>
+        <v>2293.5</v>
       </c>
       <c r="F4" s="4">
         <f>F3</f>
@@ -743,7 +743,7 @@
       </c>
       <c r="K4" s="2">
         <f t="shared" ref="K4:K38" si="3">E4+J4</f>
-        <v>1681.9</v>
+        <v>2293.5</v>
       </c>
     </row>
     <row r="5" spans="1:43" x14ac:dyDescent="0.3">
@@ -759,19 +759,19 @@
         <v>69</v>
       </c>
       <c r="D5" s="2">
-        <f>23*1.1</f>
-        <v>25.3</v>
+        <f t="shared" ref="D5:D35" si="6">D4</f>
+        <v>33</v>
       </c>
       <c r="E5" s="2">
         <f t="shared" si="0"/>
-        <v>1745.7</v>
+        <v>2277</v>
       </c>
       <c r="F5" s="4">
-        <f t="shared" ref="F5:F38" si="6">F4</f>
+        <f t="shared" ref="F5:F38" si="7">F4</f>
         <v>44813</v>
       </c>
       <c r="G5" s="4">
-        <f t="shared" ref="G5:G38" si="7">G4+1</f>
+        <f t="shared" ref="G5:G38" si="8">G4+1</f>
         <v>44807</v>
       </c>
       <c r="H5" s="2">
@@ -779,7 +779,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="2">
-        <f t="shared" ref="I5:I38" si="8">I4</f>
+        <f t="shared" ref="I5:I38" si="9">I4</f>
         <v>10</v>
       </c>
       <c r="J5" s="2">
@@ -788,7 +788,7 @@
       </c>
       <c r="K5" s="2">
         <f t="shared" si="3"/>
-        <v>1745.7</v>
+        <v>2277</v>
       </c>
     </row>
     <row r="6" spans="1:43" x14ac:dyDescent="0.3">
@@ -804,19 +804,19 @@
         <v>68.5</v>
       </c>
       <c r="D6" s="2">
-        <f>24*1.1</f>
-        <v>26.400000000000002</v>
+        <f t="shared" si="6"/>
+        <v>33</v>
       </c>
       <c r="E6" s="2">
         <f t="shared" si="0"/>
-        <v>1808.4</v>
+        <v>2260.5</v>
       </c>
       <c r="F6" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G6" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44808</v>
       </c>
       <c r="H6" s="2">
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J6" s="2">
@@ -833,7 +833,7 @@
       </c>
       <c r="K6" s="2">
         <f t="shared" si="3"/>
-        <v>1808.4</v>
+        <v>2260.5</v>
       </c>
     </row>
     <row r="7" spans="1:43" x14ac:dyDescent="0.3">
@@ -849,19 +849,19 @@
         <v>68</v>
       </c>
       <c r="D7" s="2">
-        <f>1.1*25</f>
-        <v>27.500000000000004</v>
+        <f t="shared" si="6"/>
+        <v>33</v>
       </c>
       <c r="E7" s="2">
         <f t="shared" si="0"/>
-        <v>1870.0000000000002</v>
+        <v>2244</v>
       </c>
       <c r="F7" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G7" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44809</v>
       </c>
       <c r="H7" s="2">
@@ -869,7 +869,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J7" s="2">
@@ -878,7 +878,7 @@
       </c>
       <c r="K7" s="2">
         <f t="shared" si="3"/>
-        <v>1870.0000000000002</v>
+        <v>2244</v>
       </c>
     </row>
     <row r="8" spans="1:43" x14ac:dyDescent="0.3">
@@ -894,19 +894,19 @@
         <v>67.5</v>
       </c>
       <c r="D8" s="2">
-        <f>1.1*26</f>
-        <v>28.6</v>
+        <f t="shared" si="6"/>
+        <v>33</v>
       </c>
       <c r="E8" s="2">
         <f t="shared" si="0"/>
-        <v>1930.5</v>
+        <v>2227.5</v>
       </c>
       <c r="F8" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G8" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44810</v>
       </c>
       <c r="H8" s="2">
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J8" s="2">
@@ -923,7 +923,7 @@
       </c>
       <c r="K8" s="2">
         <f t="shared" si="3"/>
-        <v>1930.5</v>
+        <v>2227.5</v>
       </c>
     </row>
     <row r="9" spans="1:43" x14ac:dyDescent="0.3">
@@ -939,19 +939,19 @@
         <v>67</v>
       </c>
       <c r="D9" s="2">
-        <f>1.1*27</f>
-        <v>29.700000000000003</v>
+        <f t="shared" si="6"/>
+        <v>33</v>
       </c>
       <c r="E9" s="2">
         <f t="shared" si="0"/>
-        <v>1989.9</v>
+        <v>2211</v>
       </c>
       <c r="F9" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G9" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44811</v>
       </c>
       <c r="H9" s="2">
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J9" s="2">
@@ -968,7 +968,7 @@
       </c>
       <c r="K9" s="2">
         <f t="shared" si="3"/>
-        <v>1989.9</v>
+        <v>2211</v>
       </c>
     </row>
     <row r="10" spans="1:43" x14ac:dyDescent="0.3">
@@ -984,19 +984,19 @@
         <v>66.5</v>
       </c>
       <c r="D10" s="2">
-        <f>1.1*28</f>
-        <v>30.800000000000004</v>
+        <f t="shared" si="6"/>
+        <v>33</v>
       </c>
       <c r="E10" s="2">
         <f t="shared" si="0"/>
-        <v>2048.2000000000003</v>
+        <v>2194.5</v>
       </c>
       <c r="F10" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G10" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44812</v>
       </c>
       <c r="H10" s="2">
@@ -1004,7 +1004,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J10" s="2">
@@ -1013,7 +1013,7 @@
       </c>
       <c r="K10" s="2">
         <f t="shared" si="3"/>
-        <v>2048.2000000000003</v>
+        <v>2194.5</v>
       </c>
     </row>
     <row r="11" spans="1:43" x14ac:dyDescent="0.3">
@@ -1029,19 +1029,19 @@
         <v>66</v>
       </c>
       <c r="D11" s="2">
-        <f>1.1*29</f>
-        <v>31.900000000000002</v>
+        <f t="shared" si="6"/>
+        <v>33</v>
       </c>
       <c r="E11" s="2">
         <f t="shared" si="0"/>
-        <v>2105.4</v>
+        <v>2178</v>
       </c>
       <c r="F11" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G11" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="H11" s="2">
@@ -1049,7 +1049,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J11" s="2">
@@ -1058,7 +1058,7 @@
       </c>
       <c r="K11" s="2">
         <f t="shared" si="3"/>
-        <v>2105.4</v>
+        <v>2178</v>
       </c>
     </row>
     <row r="12" spans="1:43" x14ac:dyDescent="0.3">
@@ -1074,7 +1074,7 @@
         <v>65.5</v>
       </c>
       <c r="D12" s="2">
-        <f>1.1*30</f>
+        <f t="shared" si="6"/>
         <v>33</v>
       </c>
       <c r="E12" s="2">
@@ -1082,11 +1082,11 @@
         <v>2161.5</v>
       </c>
       <c r="F12" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G12" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44814</v>
       </c>
       <c r="H12" s="2">
@@ -1094,7 +1094,7 @@
         <v>1</v>
       </c>
       <c r="I12" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J12" s="2">
@@ -1119,19 +1119,19 @@
         <v>65</v>
       </c>
       <c r="D13" s="2">
-        <f>1.1*31</f>
-        <v>34.1</v>
+        <f t="shared" si="6"/>
+        <v>33</v>
       </c>
       <c r="E13" s="2">
         <f t="shared" si="0"/>
-        <v>2216.5</v>
+        <v>2145</v>
       </c>
       <c r="F13" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G13" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44815</v>
       </c>
       <c r="H13" s="2">
@@ -1139,7 +1139,7 @@
         <v>2</v>
       </c>
       <c r="I13" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J13" s="2">
@@ -1148,7 +1148,7 @@
       </c>
       <c r="K13" s="2">
         <f t="shared" si="3"/>
-        <v>2236.5</v>
+        <v>2165</v>
       </c>
     </row>
     <row r="14" spans="1:43" x14ac:dyDescent="0.3">
@@ -1164,19 +1164,19 @@
         <v>64.5</v>
       </c>
       <c r="D14" s="2">
-        <f>1.1*32</f>
-        <v>35.200000000000003</v>
+        <f t="shared" si="6"/>
+        <v>33</v>
       </c>
       <c r="E14" s="2">
         <f t="shared" si="0"/>
-        <v>2270.4</v>
+        <v>2128.5</v>
       </c>
       <c r="F14" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G14" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44816</v>
       </c>
       <c r="H14" s="2">
@@ -1184,7 +1184,7 @@
         <v>3</v>
       </c>
       <c r="I14" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J14" s="2">
@@ -1193,7 +1193,7 @@
       </c>
       <c r="K14" s="2">
         <f t="shared" si="3"/>
-        <v>2300.4</v>
+        <v>2158.5</v>
       </c>
     </row>
     <row r="15" spans="1:43" x14ac:dyDescent="0.3">
@@ -1209,19 +1209,19 @@
         <v>64</v>
       </c>
       <c r="D15" s="2">
-        <f>1.1*33</f>
-        <v>36.300000000000004</v>
+        <f t="shared" si="6"/>
+        <v>33</v>
       </c>
       <c r="E15" s="2">
         <f t="shared" si="0"/>
-        <v>2323.2000000000003</v>
+        <v>2112</v>
       </c>
       <c r="F15" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G15" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44817</v>
       </c>
       <c r="H15" s="2">
@@ -1229,7 +1229,7 @@
         <v>4</v>
       </c>
       <c r="I15" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J15" s="2">
@@ -1238,7 +1238,7 @@
       </c>
       <c r="K15" s="2">
         <f t="shared" si="3"/>
-        <v>2363.2000000000003</v>
+        <v>2152</v>
       </c>
     </row>
     <row r="16" spans="1:43" x14ac:dyDescent="0.3">
@@ -1254,19 +1254,19 @@
         <v>63.5</v>
       </c>
       <c r="D16" s="2">
-        <f>1.1*34</f>
-        <v>37.400000000000006</v>
+        <f t="shared" si="6"/>
+        <v>33</v>
       </c>
       <c r="E16" s="2">
         <f t="shared" si="0"/>
-        <v>2374.9000000000005</v>
+        <v>2095.5</v>
       </c>
       <c r="F16" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G16" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44818</v>
       </c>
       <c r="H16" s="2">
@@ -1274,7 +1274,7 @@
         <v>5</v>
       </c>
       <c r="I16" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J16" s="2">
@@ -1283,7 +1283,7 @@
       </c>
       <c r="K16" s="2">
         <f t="shared" si="3"/>
-        <v>2424.9000000000005</v>
+        <v>2145.5</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -1299,19 +1299,19 @@
         <v>63</v>
       </c>
       <c r="D17" s="2">
-        <f>1.1*35</f>
-        <v>38.5</v>
+        <f t="shared" si="6"/>
+        <v>33</v>
       </c>
       <c r="E17" s="2">
         <f t="shared" si="0"/>
-        <v>2425.5</v>
+        <v>2079</v>
       </c>
       <c r="F17" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G17" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44819</v>
       </c>
       <c r="H17" s="2">
@@ -1319,7 +1319,7 @@
         <v>6</v>
       </c>
       <c r="I17" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J17" s="2">
@@ -1328,7 +1328,7 @@
       </c>
       <c r="K17" s="2">
         <f t="shared" si="3"/>
-        <v>2485.5</v>
+        <v>2139</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
@@ -1344,19 +1344,19 @@
         <v>62.5</v>
       </c>
       <c r="D18" s="2">
-        <f>1.1*36</f>
-        <v>39.6</v>
+        <f t="shared" si="6"/>
+        <v>33</v>
       </c>
       <c r="E18" s="2">
         <f t="shared" si="0"/>
-        <v>2475</v>
+        <v>2062.5</v>
       </c>
       <c r="F18" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G18" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44820</v>
       </c>
       <c r="H18" s="2">
@@ -1364,7 +1364,7 @@
         <v>7</v>
       </c>
       <c r="I18" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J18" s="2">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K18" s="2">
         <f t="shared" si="3"/>
-        <v>2545</v>
+        <v>2132.5</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -1389,19 +1389,19 @@
         <v>62</v>
       </c>
       <c r="D19" s="2">
-        <f>1.1*37</f>
-        <v>40.700000000000003</v>
+        <f t="shared" si="6"/>
+        <v>33</v>
       </c>
       <c r="E19" s="2">
         <f t="shared" si="0"/>
-        <v>2523.4</v>
+        <v>2046</v>
       </c>
       <c r="F19" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G19" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44821</v>
       </c>
       <c r="H19" s="2">
@@ -1409,7 +1409,7 @@
         <v>8</v>
       </c>
       <c r="I19" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J19" s="2">
@@ -1418,7 +1418,7 @@
       </c>
       <c r="K19" s="2">
         <f t="shared" si="3"/>
-        <v>2603.4</v>
+        <v>2126</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
@@ -1434,19 +1434,19 @@
         <v>61.5</v>
       </c>
       <c r="D20" s="2">
-        <f>1.1*38</f>
-        <v>41.800000000000004</v>
+        <f t="shared" si="6"/>
+        <v>33</v>
       </c>
       <c r="E20" s="2">
         <f t="shared" si="0"/>
-        <v>2570.7000000000003</v>
+        <v>2029.5</v>
       </c>
       <c r="F20" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G20" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44822</v>
       </c>
       <c r="H20" s="2">
@@ -1454,7 +1454,7 @@
         <v>9</v>
       </c>
       <c r="I20" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J20" s="2">
@@ -1463,7 +1463,7 @@
       </c>
       <c r="K20" s="2">
         <f t="shared" si="3"/>
-        <v>2660.7000000000003</v>
+        <v>2119.5</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
@@ -1479,19 +1479,19 @@
         <v>61</v>
       </c>
       <c r="D21" s="2">
-        <f>1.1*39</f>
-        <v>42.900000000000006</v>
+        <f t="shared" si="6"/>
+        <v>33</v>
       </c>
       <c r="E21" s="2">
         <f t="shared" si="0"/>
-        <v>2616.9000000000005</v>
+        <v>2013</v>
       </c>
       <c r="F21" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G21" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44823</v>
       </c>
       <c r="H21" s="2">
@@ -1499,7 +1499,7 @@
         <v>10</v>
       </c>
       <c r="I21" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J21" s="2">
@@ -1508,7 +1508,7 @@
       </c>
       <c r="K21" s="2">
         <f t="shared" si="3"/>
-        <v>2716.9000000000005</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
@@ -1524,19 +1524,19 @@
         <v>60.5</v>
       </c>
       <c r="D22" s="2">
-        <f>1.1*40</f>
-        <v>44</v>
+        <f t="shared" si="6"/>
+        <v>33</v>
       </c>
       <c r="E22" s="2">
         <f t="shared" si="0"/>
-        <v>2662</v>
+        <v>1996.5</v>
       </c>
       <c r="F22" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G22" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44824</v>
       </c>
       <c r="H22" s="2">
@@ -1544,7 +1544,7 @@
         <v>11</v>
       </c>
       <c r="I22" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J22" s="2">
@@ -1553,7 +1553,7 @@
       </c>
       <c r="K22" s="2">
         <f t="shared" si="3"/>
-        <v>2772</v>
+        <v>2106.5</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
@@ -1569,19 +1569,19 @@
         <v>60</v>
       </c>
       <c r="D23" s="2">
-        <f>1.1*41</f>
-        <v>45.1</v>
+        <f t="shared" si="6"/>
+        <v>33</v>
       </c>
       <c r="E23" s="2">
         <f t="shared" si="0"/>
-        <v>2706</v>
+        <v>1980</v>
       </c>
       <c r="F23" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G23" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44825</v>
       </c>
       <c r="H23" s="2">
@@ -1589,7 +1589,7 @@
         <v>12</v>
       </c>
       <c r="I23" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J23" s="2">
@@ -1598,7 +1598,7 @@
       </c>
       <c r="K23" s="2">
         <f t="shared" si="3"/>
-        <v>2826</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
@@ -1614,19 +1614,19 @@
         <v>59.5</v>
       </c>
       <c r="D24" s="2">
-        <f>1.1*42</f>
-        <v>46.2</v>
+        <f t="shared" si="6"/>
+        <v>33</v>
       </c>
       <c r="E24" s="2">
         <f t="shared" si="0"/>
-        <v>2748.9</v>
+        <v>1963.5</v>
       </c>
       <c r="F24" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G24" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44826</v>
       </c>
       <c r="H24" s="2">
@@ -1634,7 +1634,7 @@
         <v>13</v>
       </c>
       <c r="I24" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J24" s="2">
@@ -1643,7 +1643,7 @@
       </c>
       <c r="K24" s="2">
         <f t="shared" si="3"/>
-        <v>2878.9</v>
+        <v>2093.5</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
@@ -1659,19 +1659,19 @@
         <v>59</v>
       </c>
       <c r="D25" s="2">
-        <f>1.1*43</f>
-        <v>47.300000000000004</v>
+        <f t="shared" si="6"/>
+        <v>33</v>
       </c>
       <c r="E25" s="2">
         <f t="shared" si="0"/>
-        <v>2790.7000000000003</v>
+        <v>1947</v>
       </c>
       <c r="F25" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G25" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44827</v>
       </c>
       <c r="H25" s="2">
@@ -1679,7 +1679,7 @@
         <v>14</v>
       </c>
       <c r="I25" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J25" s="2">
@@ -1688,7 +1688,7 @@
       </c>
       <c r="K25" s="2">
         <f t="shared" si="3"/>
-        <v>2930.7000000000003</v>
+        <v>2087</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
@@ -1704,19 +1704,19 @@
         <v>58.5</v>
       </c>
       <c r="D26" s="2">
-        <f>1.1*44</f>
-        <v>48.400000000000006</v>
+        <f t="shared" si="6"/>
+        <v>33</v>
       </c>
       <c r="E26" s="2">
         <f t="shared" si="0"/>
-        <v>2831.4000000000005</v>
+        <v>1930.5</v>
       </c>
       <c r="F26" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G26" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44828</v>
       </c>
       <c r="H26" s="2">
@@ -1724,7 +1724,7 @@
         <v>15</v>
       </c>
       <c r="I26" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J26" s="2">
@@ -1733,7 +1733,7 @@
       </c>
       <c r="K26" s="2">
         <f t="shared" si="3"/>
-        <v>2981.4000000000005</v>
+        <v>2080.5</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
@@ -1749,19 +1749,19 @@
         <v>58</v>
       </c>
       <c r="D27" s="2">
-        <f>1.1*45</f>
-        <v>49.500000000000007</v>
+        <f t="shared" si="6"/>
+        <v>33</v>
       </c>
       <c r="E27" s="2">
         <f t="shared" si="0"/>
-        <v>2871.0000000000005</v>
+        <v>1914</v>
       </c>
       <c r="F27" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G27" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44829</v>
       </c>
       <c r="H27" s="2">
@@ -1769,7 +1769,7 @@
         <v>16</v>
       </c>
       <c r="I27" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J27" s="2">
@@ -1778,7 +1778,7 @@
       </c>
       <c r="K27" s="2">
         <f t="shared" si="3"/>
-        <v>3031.0000000000005</v>
+        <v>2074</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
@@ -1794,19 +1794,19 @@
         <v>57.5</v>
       </c>
       <c r="D28" s="2">
-        <f>1.1*46</f>
-        <v>50.6</v>
+        <f t="shared" si="6"/>
+        <v>33</v>
       </c>
       <c r="E28" s="2">
         <f t="shared" si="0"/>
-        <v>2909.5</v>
+        <v>1897.5</v>
       </c>
       <c r="F28" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G28" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44830</v>
       </c>
       <c r="H28" s="2">
@@ -1814,7 +1814,7 @@
         <v>17</v>
       </c>
       <c r="I28" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J28" s="2">
@@ -1823,7 +1823,7 @@
       </c>
       <c r="K28" s="2">
         <f t="shared" si="3"/>
-        <v>3079.5</v>
+        <v>2067.5</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
@@ -1839,19 +1839,19 @@
         <v>57</v>
       </c>
       <c r="D29" s="2">
-        <f>1.1*47</f>
-        <v>51.7</v>
+        <f t="shared" si="6"/>
+        <v>33</v>
       </c>
       <c r="E29" s="2">
         <f t="shared" si="0"/>
-        <v>2946.9</v>
+        <v>1881</v>
       </c>
       <c r="F29" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G29" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44831</v>
       </c>
       <c r="H29" s="2">
@@ -1859,7 +1859,7 @@
         <v>18</v>
       </c>
       <c r="I29" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J29" s="2">
@@ -1868,7 +1868,7 @@
       </c>
       <c r="K29" s="2">
         <f t="shared" si="3"/>
-        <v>3126.9</v>
+        <v>2061</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
@@ -1884,19 +1884,19 @@
         <v>56.5</v>
       </c>
       <c r="D30" s="2">
-        <f>1.1*48</f>
-        <v>52.800000000000004</v>
+        <f t="shared" si="6"/>
+        <v>33</v>
       </c>
       <c r="E30" s="2">
         <f t="shared" si="0"/>
-        <v>2983.2000000000003</v>
+        <v>1864.5</v>
       </c>
       <c r="F30" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G30" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44832</v>
       </c>
       <c r="H30" s="2">
@@ -1904,7 +1904,7 @@
         <v>19</v>
       </c>
       <c r="I30" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J30" s="2">
@@ -1913,7 +1913,7 @@
       </c>
       <c r="K30" s="2">
         <f t="shared" si="3"/>
-        <v>3173.2000000000003</v>
+        <v>2054.5</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
@@ -1929,19 +1929,19 @@
         <v>56</v>
       </c>
       <c r="D31" s="2">
-        <f>1.1*49</f>
-        <v>53.900000000000006</v>
+        <f t="shared" si="6"/>
+        <v>33</v>
       </c>
       <c r="E31" s="2">
         <f t="shared" si="0"/>
-        <v>3018.4000000000005</v>
+        <v>1848</v>
       </c>
       <c r="F31" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G31" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44833</v>
       </c>
       <c r="H31" s="2">
@@ -1949,7 +1949,7 @@
         <v>20</v>
       </c>
       <c r="I31" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J31" s="2">
@@ -1958,7 +1958,7 @@
       </c>
       <c r="K31" s="2">
         <f t="shared" si="3"/>
-        <v>3218.4000000000005</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
@@ -1974,19 +1974,19 @@
         <v>55.5</v>
       </c>
       <c r="D32" s="2">
-        <f>1.1*50</f>
-        <v>55.000000000000007</v>
+        <f t="shared" si="6"/>
+        <v>33</v>
       </c>
       <c r="E32" s="2">
         <f t="shared" si="0"/>
-        <v>3052.5000000000005</v>
+        <v>1831.5</v>
       </c>
       <c r="F32" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G32" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44834</v>
       </c>
       <c r="H32" s="2">
@@ -1994,7 +1994,7 @@
         <v>21</v>
       </c>
       <c r="I32" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J32" s="2">
@@ -2003,7 +2003,7 @@
       </c>
       <c r="K32" s="2">
         <f t="shared" si="3"/>
-        <v>3262.5000000000005</v>
+        <v>2041.5</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
@@ -2019,19 +2019,19 @@
         <v>55</v>
       </c>
       <c r="D33" s="2">
-        <f>1.1*51</f>
-        <v>56.1</v>
+        <f t="shared" si="6"/>
+        <v>33</v>
       </c>
       <c r="E33" s="2">
         <f t="shared" si="0"/>
-        <v>3085.5</v>
+        <v>1815</v>
       </c>
       <c r="F33" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G33" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44835</v>
       </c>
       <c r="H33" s="2">
@@ -2039,7 +2039,7 @@
         <v>22</v>
       </c>
       <c r="I33" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J33" s="2">
@@ -2048,7 +2048,7 @@
       </c>
       <c r="K33" s="2">
         <f t="shared" si="3"/>
-        <v>3305.5</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
@@ -2064,19 +2064,19 @@
         <v>54.5</v>
       </c>
       <c r="D34" s="2">
-        <f>1.1*52</f>
-        <v>57.2</v>
+        <f t="shared" si="6"/>
+        <v>33</v>
       </c>
       <c r="E34" s="2">
         <f t="shared" si="0"/>
-        <v>3117.4</v>
+        <v>1798.5</v>
       </c>
       <c r="F34" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G34" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44836</v>
       </c>
       <c r="H34" s="2">
@@ -2084,7 +2084,7 @@
         <v>23</v>
       </c>
       <c r="I34" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J34" s="2">
@@ -2093,7 +2093,7 @@
       </c>
       <c r="K34" s="2">
         <f t="shared" si="3"/>
-        <v>3347.4</v>
+        <v>2028.5</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
@@ -2109,19 +2109,19 @@
         <v>54</v>
       </c>
       <c r="D35" s="2">
-        <f>1.1*53/2</f>
-        <v>29.150000000000002</v>
+        <f>D3/2</f>
+        <v>16.5</v>
       </c>
       <c r="E35" s="2">
         <f t="shared" si="0"/>
-        <v>1574.1000000000001</v>
+        <v>891</v>
       </c>
       <c r="F35" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G35" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44837</v>
       </c>
       <c r="H35" s="2">
@@ -2129,7 +2129,7 @@
         <v>24</v>
       </c>
       <c r="I35" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J35" s="2">
@@ -2138,7 +2138,7 @@
       </c>
       <c r="K35" s="2">
         <f t="shared" si="3"/>
-        <v>1814.1000000000001</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
@@ -2154,19 +2154,19 @@
         <v>53.5</v>
       </c>
       <c r="D36" s="2">
-        <f>1.1*54/2</f>
-        <v>29.700000000000003</v>
+        <f t="shared" ref="D36:D38" si="10">D4/2</f>
+        <v>16.5</v>
       </c>
       <c r="E36" s="2">
         <f t="shared" si="0"/>
-        <v>1588.95</v>
+        <v>882.75</v>
       </c>
       <c r="F36" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G36" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44838</v>
       </c>
       <c r="H36" s="2">
@@ -2174,7 +2174,7 @@
         <v>25</v>
       </c>
       <c r="I36" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J36" s="2">
@@ -2183,7 +2183,7 @@
       </c>
       <c r="K36" s="2">
         <f t="shared" si="3"/>
-        <v>1838.95</v>
+        <v>1132.75</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
@@ -2199,19 +2199,19 @@
         <v>53</v>
       </c>
       <c r="D37" s="2">
-        <f>1.1*55/2</f>
-        <v>30.250000000000004</v>
+        <f t="shared" si="10"/>
+        <v>16.5</v>
       </c>
       <c r="E37" s="2">
         <f t="shared" si="0"/>
-        <v>1603.2500000000002</v>
+        <v>874.5</v>
       </c>
       <c r="F37" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G37" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44839</v>
       </c>
       <c r="H37" s="2">
@@ -2219,7 +2219,7 @@
         <v>26</v>
       </c>
       <c r="I37" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J37" s="2">
@@ -2228,7 +2228,7 @@
       </c>
       <c r="K37" s="2">
         <f t="shared" si="3"/>
-        <v>1863.2500000000002</v>
+        <v>1134.5</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
@@ -2244,19 +2244,19 @@
         <v>52.5</v>
       </c>
       <c r="D38" s="2">
-        <f>1.1*56/2</f>
-        <v>30.800000000000004</v>
+        <f t="shared" si="10"/>
+        <v>16.5</v>
       </c>
       <c r="E38" s="2">
         <f t="shared" si="0"/>
-        <v>1617.0000000000002</v>
+        <v>866.25</v>
       </c>
       <c r="F38" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G38" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44840</v>
       </c>
       <c r="H38" s="2">
@@ -2264,7 +2264,7 @@
         <v>27</v>
       </c>
       <c r="I38" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J38" s="2">
@@ -2273,7 +2273,7 @@
       </c>
       <c r="K38" s="2">
         <f t="shared" si="3"/>
-        <v>1887.0000000000002</v>
+        <v>1136.25</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
@@ -2282,7 +2282,7 @@
       </c>
       <c r="C40" s="2">
         <f>FLOOR(SUM(K3:K38),1)</f>
-        <v>88641</v>
+        <v>73030</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
@@ -2309,7 +2309,7 @@
       </c>
       <c r="C43" s="2">
         <f>MAX(K3:K38)</f>
-        <v>3347.4</v>
+        <v>2310</v>
       </c>
     </row>
   </sheetData>

--- a/LR3/table_1_30.xlsx
+++ b/LR3/table_1_30.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{864EBAA3-2E6E-4800-B69C-6FE036A918F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E4764F3-9B50-4C62-9A48-2FDB404AA332}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,12 +30,6 @@
     <t>№ квартиры</t>
   </si>
   <si>
-    <t>Фамилия квартиросъемщика</t>
-  </si>
-  <si>
-    <t>Площадь, кв.м.</t>
-  </si>
-  <si>
     <t>Тариф</t>
   </si>
   <si>
@@ -51,9 +45,6 @@
     <t>Просрочка</t>
   </si>
   <si>
-    <t>Пени за 1 День</t>
-  </si>
-  <si>
     <t>Штраф</t>
   </si>
   <si>
@@ -178,6 +169,15 @@
   </si>
   <si>
     <t>Максимальная сумма, руб.</t>
+  </si>
+  <si>
+    <t>Фамилия квартиросъёмщика</t>
+  </si>
+  <si>
+    <t>Площадь</t>
+  </si>
+  <si>
+    <t>Пени за 1 день</t>
   </si>
 </sst>
 </file>
@@ -573,7 +573,7 @@
   <dimension ref="A1:AQ43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -599,34 +599,34 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="I2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
@@ -666,7 +666,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C3" s="2">
         <v>70</v>
@@ -707,7 +707,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2">
         <f>C3-0.5</f>
@@ -752,14 +752,14 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2">
         <f t="shared" ref="C5:C38" si="5">C4-0.5</f>
         <v>69</v>
       </c>
       <c r="D5" s="2">
-        <f t="shared" ref="D5:D35" si="6">D4</f>
+        <f t="shared" ref="D5:D34" si="6">D4</f>
         <v>33</v>
       </c>
       <c r="E5" s="2">
@@ -797,7 +797,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C6" s="2">
         <f t="shared" si="5"/>
@@ -842,7 +842,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C7" s="2">
         <f t="shared" si="5"/>
@@ -887,7 +887,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C8" s="2">
         <f t="shared" si="5"/>
@@ -932,7 +932,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C9" s="2">
         <f t="shared" si="5"/>
@@ -977,7 +977,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C10" s="2">
         <f t="shared" si="5"/>
@@ -1022,7 +1022,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C11" s="2">
         <f t="shared" si="5"/>
@@ -1067,7 +1067,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C12" s="2">
         <f t="shared" si="5"/>
@@ -1112,7 +1112,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C13" s="2">
         <f t="shared" si="5"/>
@@ -1157,7 +1157,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C14" s="2">
         <f t="shared" si="5"/>
@@ -1202,7 +1202,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C15" s="2">
         <f t="shared" si="5"/>
@@ -1247,7 +1247,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C16" s="2">
         <f t="shared" si="5"/>
@@ -1292,7 +1292,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C17" s="2">
         <f t="shared" si="5"/>
@@ -1337,7 +1337,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C18" s="2">
         <f t="shared" si="5"/>
@@ -1382,7 +1382,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C19" s="2">
         <f t="shared" si="5"/>
@@ -1427,7 +1427,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C20" s="2">
         <f t="shared" si="5"/>
@@ -1472,7 +1472,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C21" s="2">
         <f t="shared" si="5"/>
@@ -1517,7 +1517,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C22" s="2">
         <f t="shared" si="5"/>
@@ -1562,7 +1562,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C23" s="2">
         <f t="shared" si="5"/>
@@ -1607,7 +1607,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C24" s="2">
         <f t="shared" si="5"/>
@@ -1652,7 +1652,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C25" s="2">
         <f t="shared" si="5"/>
@@ -1697,7 +1697,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C26" s="2">
         <f t="shared" si="5"/>
@@ -1742,7 +1742,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C27" s="2">
         <f t="shared" si="5"/>
@@ -1787,7 +1787,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C28" s="2">
         <f t="shared" si="5"/>
@@ -1832,7 +1832,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C29" s="2">
         <f t="shared" si="5"/>
@@ -1877,7 +1877,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C30" s="2">
         <f t="shared" si="5"/>
@@ -1922,7 +1922,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C31" s="2">
         <f t="shared" si="5"/>
@@ -1967,7 +1967,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C32" s="2">
         <f t="shared" si="5"/>
@@ -2012,7 +2012,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C33" s="2">
         <f t="shared" si="5"/>
@@ -2057,7 +2057,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C34" s="2">
         <f t="shared" si="5"/>
@@ -2102,7 +2102,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C35" s="2">
         <f t="shared" si="5"/>
@@ -2147,7 +2147,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C36" s="2">
         <f t="shared" si="5"/>
@@ -2192,7 +2192,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C37" s="2">
         <f t="shared" si="5"/>
@@ -2237,7 +2237,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C38" s="2">
         <f t="shared" si="5"/>
@@ -2278,7 +2278,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B40" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C40" s="2">
         <f>FLOOR(SUM(K3:K38),1)</f>
@@ -2287,7 +2287,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B41" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C41" s="2">
         <f>AVERAGE(C3:C38)</f>
@@ -2296,7 +2296,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B42" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C42" s="2">
         <f>MAX(H3:H38)</f>
@@ -2305,7 +2305,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B43" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C43" s="2">
         <f>MAX(K3:K38)</f>
